--- a/dSP/src/main/java/com/testdata/dataForDspNGT.xlsx
+++ b/dSP/src/main/java/com/testdata/dataForDspNGT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19935" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="launchBrowser" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="example" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -21,9 +22,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.151.32.200:30580/dsp/</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
@@ -34,6 +32,9 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>http://10.151.32.200:30439/dsp/</t>
   </si>
 </sst>
 </file>
@@ -395,9 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -406,18 +405,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -425,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
